--- a/timesheets/Alpha Timesheet.xlsx
+++ b/timesheets/Alpha Timesheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="23940" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="180" yWindow="4580" windowWidth="25360" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1145,9 +1145,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1248,6 +1245,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1688,8 +1688,8 @@
   </sheetPr>
   <dimension ref="B1:AML51"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1703,10 +1703,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="51" customHeight="1">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
+      <c r="C1" s="79"/>
       <c r="D1" s="9"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -1851,48 +1851,48 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="46" thickTop="1">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="46">
         <v>3</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="61" thickBot="1">
-      <c r="B11" s="50"/>
-      <c r="C11" s="58" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="50" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="31">
         <v>5</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="46" thickTop="1">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="56" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -1910,10 +1910,10 @@
     </row>
     <row r="13" spans="2:7" ht="46" thickBot="1">
       <c r="B13" s="20"/>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="60" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="22" t="s">
@@ -1946,31 +1946,31 @@
       <c r="B16" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="68">
         <v>41232</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
     </row>
     <row r="17" spans="2:7" ht="18" thickBot="1">
       <c r="B17" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="66" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="2:7" ht="61" thickBot="1">
-      <c r="B21" s="50"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="31" t="s">
         <v>26</v>
       </c>
@@ -2071,14 +2071,14 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="91" thickBot="1">
-      <c r="B23" s="50"/>
-      <c r="C23" s="62" t="s">
+      <c r="B23" s="49"/>
+      <c r="C23" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="50" t="s">
         <v>75</v>
       </c>
       <c r="F23" s="31">
@@ -2109,11 +2109,11 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="91" thickBot="1">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="63" t="s">
         <v>80</v>
       </c>
       <c r="E25" s="22" t="s">
@@ -2122,7 +2122,7 @@
       <c r="F25" s="21">
         <v>2</v>
       </c>
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="64" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2138,69 +2138,69 @@
       <c r="B27" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="68">
         <v>41239</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
     </row>
     <row r="28" spans="2:7" ht="18" thickBot="1">
       <c r="B28" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="67" t="s">
+      <c r="G28" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="54">
+      <c r="F29" s="53">
         <v>3</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="31" thickBot="1">
       <c r="B30" s="30"/>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="51">
+      <c r="F30" s="50">
         <v>1</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="51" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:1026" ht="91" thickBot="1">
-      <c r="B34" s="50"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="31" t="s">
         <v>33</v>
       </c>
@@ -2299,10 +2299,10 @@
       </c>
     </row>
     <row r="36" spans="2:1026" ht="122" thickTop="1" thickBot="1">
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="71" t="s">
         <v>83</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2314,7 +2314,7 @@
       <c r="F36" s="38">
         <v>3</v>
       </c>
-      <c r="G36" s="73" t="s">
+      <c r="G36" s="72" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       <c r="B38" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="68">
         <v>41246</v>
       </c>
       <c r="D38" s="13"/>
@@ -2342,19 +2342,19 @@
       <c r="B39" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="67" t="s">
+      <c r="G39" s="66" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2399,22 +2399,22 @@
       </c>
     </row>
     <row r="42" spans="2:1026" ht="31" thickTop="1">
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="47" t="s">
+      <c r="E42" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="47">
+      <c r="F42" s="46">
         <v>0.5</v>
       </c>
-      <c r="G42" s="75" t="s">
+      <c r="G42" s="74" t="s">
         <v>37</v>
       </c>
       <c r="H42" s="6"/>
@@ -10695,40 +10695,40 @@
       <c r="AML49" s="6"/>
     </row>
     <row r="50" spans="2:1026" ht="121" thickTop="1">
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C50" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="78" t="s">
+      <c r="D50" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="78" t="s">
+      <c r="E50" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="78">
+      <c r="F50" s="77">
         <v>1.5</v>
       </c>
-      <c r="G50" s="79" t="s">
+      <c r="G50" s="78" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="51" spans="2:1026" ht="121" thickBot="1">
       <c r="B51" s="20"/>
-      <c r="C51" s="76" t="s">
+      <c r="C51" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="76" t="s">
+      <c r="D51" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="76" t="s">
+      <c r="E51" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="76">
+      <c r="F51" s="75">
         <v>1</v>
       </c>
-      <c r="G51" s="77" t="s">
+      <c r="G51" s="76" t="s">
         <v>11</v>
       </c>
     </row>
